--- a/biology/Botanique/Isabella_Abbott/Isabella_Abbott.xlsx
+++ b/biology/Botanique/Isabella_Abbott/Isabella_Abbott.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabella Aiona Abbott (née le 20 juin 1919 et décédée le 28 octobre 2010) est une éducatrice, phycologue et ethnobotaniste d'Hawaï. Première femme hawaïenne à recevoir un doctorat en sciences[1], elle est devenue une experte de premier plan sur les algues marines du Pacifique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabella Aiona Abbott (née le 20 juin 1919 et décédée le 28 octobre 2010) est une éducatrice, phycologue et ethnobotaniste d'Hawaï. Première femme hawaïenne à recevoir un doctorat en sciences, elle est devenue une experte de premier plan sur les algues marines du Pacifique.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abbott est née Isabella Kauakea Yau Yung Aiona à Hana sur le territoire d'Hawaï, le 20 juin 1919. Son nom hawaïen signifie « pluie blanche de Hana » et elle est connue sous le nom de « Izzy »[3]. Son père était d'origine chinoise tandis que sa mère était originaire d'Hawaï. Sa mère lui apprend les algues comestibles d'Hawaï (en)[3] ainsi que la valeur et la diversité des plantes indigènes d'Hawaï. Elle est la seule fille et la deuxième plus jeune d'une famille de huit frères et sœurs[4].
-Elle grandit à Honolulu près de Waikiki et est diplômée des écoles Kamehameha (en) en 1937[1],[3]. Elle obtient son diplôme de premier cycle en botanique à l'université d'Hawaï à Mānoa en 1941[3], une maîtrise en botanique de l'université du Michigan en 1942, et un Doctorat en botanique de l'université de Californie à Berkeley en 1950[2],[3]. Elle épousd le zoologiste Donald Putnam Abbott, un camarade de classe à l'Université de Hawaï ainsi qu'à Berkeley. Le couple s'installe à Pacific Grove, en Californie, où son mari enseigne à la Hopkins Marine Station (en) gérée par l'université Stanford[5]. Puisqu'à cette époque les femmes sont rarement considérées pour les postes universitaires, elle passe du temps à élever sa fille Annie Abbott Foerster, tout en étudiant les algues de la côte californienne. Elle adapte des recettes pour utiliser le varech local (Nereocystis) dans des aliments tels que des gâteaux et des cornichons[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abbott est née Isabella Kauakea Yau Yung Aiona à Hana sur le territoire d'Hawaï, le 20 juin 1919. Son nom hawaïen signifie « pluie blanche de Hana » et elle est connue sous le nom de « Izzy ». Son père était d'origine chinoise tandis que sa mère était originaire d'Hawaï. Sa mère lui apprend les algues comestibles d'Hawaï (en) ainsi que la valeur et la diversité des plantes indigènes d'Hawaï. Elle est la seule fille et la deuxième plus jeune d'une famille de huit frères et sœurs.
+Elle grandit à Honolulu près de Waikiki et est diplômée des écoles Kamehameha (en) en 1937,. Elle obtient son diplôme de premier cycle en botanique à l'université d'Hawaï à Mānoa en 1941, une maîtrise en botanique de l'université du Michigan en 1942, et un Doctorat en botanique de l'université de Californie à Berkeley en 1950,. Elle épousd le zoologiste Donald Putnam Abbott, un camarade de classe à l'Université de Hawaï ainsi qu'à Berkeley. Le couple s'installe à Pacific Grove, en Californie, où son mari enseigne à la Hopkins Marine Station (en) gérée par l'université Stanford. Puisqu'à cette époque les femmes sont rarement considérées pour les postes universitaires, elle passe du temps à élever sa fille Annie Abbott Foerster, tout en étudiant les algues de la côte californienne. Elle adapte des recettes pour utiliser le varech local (Nereocystis) dans des aliments tels que des gâteaux et des cornichons.
 </t>
         </is>
       </c>
@@ -543,16 +557,18 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1966, elle devient associée de recherche et enseigne comme chargée de cours à Hopkins. Elle compile un livre sur les algues marines de la péninsule de Monterey, qui est ensuite étendu à toute la côte californienne. Elle reçoit le prix Darbaker (en) de la Société américaine de botanique en 1969[6]. En 1972, l'université Stanford l'a promue directement au rang de professeur titulaire de biologie, où elle est la première femme et la première personne de couleur à occuper ce poste[7].
-En 1982, Abbotts prend sa retraite et retourne à Hawaï, où elle est embauchée par l'Université d'Hawaï pour enseigner l'ethnobotanique, l'interaction des humains et des plantes[3].
-Elle est l'auteure de huit livres et de plus de 150 publications. Elle est considérée comme la plus grande experte mondiale en matière d'algues hawaïennes, connues dans la langue hawaïenne sous le nom de limu (en). On lui attribue la découverte de plus de 200 espèces, dont plusieurs portent son nom, notamment le genre Abbottella de la famille des Rhodomelaceae (algues rouges)[4]. Cela lui a valu le surnom de « Première Dame de Limu ».
-En 1993, elle reçoit la médaille Charles Reed Bishop et en 1997, la médaille Gilbert Morgan Smith (en) de l'Académie nationale des sciences[8],[9].
-Elle est professeure de botanique G.P. Wilder de 1980 jusqu'à sa retraite en 1982, lorsqu'elle et son mari s'installent à Hawaï où elle poursuit ses recherches en tant que professeur émérite de botanique à l'Université d'Hawaï[3]. Elle siège alors au conseil d'administration du musée Bishop[4]. En novembre 1997, elle co-écrit un essai dans le Honolulu Star-Bulletin critiquant les administrateurs des écoles Kamehameha, ce qui conduit à sa réorganisation[8],[9]. En 1988, elle est élue membre de l'Association américaine pour l'avancement des sciences[10].
-En 2005, elle est nommée trésor vivant d'Hawaï (en) par la mission Honpa Hongwanji d'Hawaï (en)[11],[12].
-Elle est considérée comme la plus grande autorité en matière d'algues du bassin de l'océan Pacifique et, en 2008, elle reçoit un prix pour l'ensemble de sa carrière du ministère des Terres et des Ressources naturelles d'Hawaï (en) pour ses études sur les récifs coralliens[13].
-Le Conseil des régents de l'Université d'Hawaï vote à l'unanimité pour renommer le bâtiment des sciences de la vie en l'honneur d'Abbott en 2023[12],[14].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1966, elle devient associée de recherche et enseigne comme chargée de cours à Hopkins. Elle compile un livre sur les algues marines de la péninsule de Monterey, qui est ensuite étendu à toute la côte californienne. Elle reçoit le prix Darbaker (en) de la Société américaine de botanique en 1969. En 1972, l'université Stanford l'a promue directement au rang de professeur titulaire de biologie, où elle est la première femme et la première personne de couleur à occuper ce poste.
+En 1982, Abbotts prend sa retraite et retourne à Hawaï, où elle est embauchée par l'Université d'Hawaï pour enseigner l'ethnobotanique, l'interaction des humains et des plantes.
+Elle est l'auteure de huit livres et de plus de 150 publications. Elle est considérée comme la plus grande experte mondiale en matière d'algues hawaïennes, connues dans la langue hawaïenne sous le nom de limu (en). On lui attribue la découverte de plus de 200 espèces, dont plusieurs portent son nom, notamment le genre Abbottella de la famille des Rhodomelaceae (algues rouges). Cela lui a valu le surnom de « Première Dame de Limu ».
+En 1993, elle reçoit la médaille Charles Reed Bishop et en 1997, la médaille Gilbert Morgan Smith (en) de l'Académie nationale des sciences,.
+Elle est professeure de botanique G.P. Wilder de 1980 jusqu'à sa retraite en 1982, lorsqu'elle et son mari s'installent à Hawaï où elle poursuit ses recherches en tant que professeur émérite de botanique à l'Université d'Hawaï. Elle siège alors au conseil d'administration du musée Bishop. En novembre 1997, elle co-écrit un essai dans le Honolulu Star-Bulletin critiquant les administrateurs des écoles Kamehameha, ce qui conduit à sa réorganisation,. En 1988, elle est élue membre de l'Association américaine pour l'avancement des sciences.
+En 2005, elle est nommée trésor vivant d'Hawaï (en) par la mission Honpa Hongwanji d'Hawaï (en),.
+Elle est considérée comme la plus grande autorité en matière d'algues du bassin de l'océan Pacifique et, en 2008, elle reçoit un prix pour l'ensemble de sa carrière du ministère des Terres et des Ressources naturelles d'Hawaï (en) pour ses études sur les récifs coralliens.
+Le Conseil des régents de l'Université d'Hawaï vote à l'unanimité pour renommer le bâtiment des sciences de la vie en l'honneur d'Abbott en 2023,.
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabella Kauakea Aiona Abbott est décédée le 28 octobre 2010 à l'âge de 91 ans à son domicile d'Honolulu[15]. La famille survivante d'Abbott comprend sa fille Annie Abbott Foerster et une petite-fille, toutes deux résidant à Hawaï.
-Pour préserver l'héritage et la carrière d'Abbott en tant que botaniste, l'université d'Hawaï crée une bourse pour soutenir la recherche supérieure en ethnobotanique et en botanique marine hawaïennes[16].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabella Kauakea Aiona Abbott est décédée le 28 octobre 2010 à l'âge de 91 ans à son domicile d'Honolulu. La famille survivante d'Abbott comprend sa fille Annie Abbott Foerster et une petite-fille, toutes deux résidant à Hawaï.
+Pour préserver l'héritage et la carrière d'Abbott en tant que botaniste, l'université d'Hawaï crée une bourse pour soutenir la recherche supérieure en ethnobotanique et en botanique marine hawaïennes.
 </t>
         </is>
       </c>
@@ -614,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
